--- a/youtube_tutorials/Statslectures/spanova.xlsx
+++ b/youtube_tutorials/Statslectures/spanova.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Python\Tutorials\Statistics\youtube_tutorials\Statslectures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Tutorials\Statistics\youtube_tutorials\Statslectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB40D5A4-1F6E-4138-BB19-A84DD0F91781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71EA0B20-4DD1-4BFE-A9C8-D8CF4A6DCCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32835" yWindow="4005" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="1260" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2379,17 +2380,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.1796875" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -2414,7 +2415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>4</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>5</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>3</v>
       </c>
@@ -2447,7 +2448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>4</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>3</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>2</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>1</v>
       </c>
@@ -2505,7 +2506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>1</v>
       </c>
@@ -2527,7 +2528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>2</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>12.272727272727019</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
@@ -2582,14 +2583,14 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E24" si="0">C20/D20</f>
+        <f>C20/D20</f>
         <v>0.18333333333333712</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>C22/D22</f>
         <v>87.583333333333371</v>
       </c>
       <c r="F22">
@@ -2608,7 +2609,7 @@
         <v>122.20930232558112</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>C23/D23</f>
         <v>8.5833333333332575</v>
       </c>
       <c r="F23">
@@ -2627,7 +2628,7 @@
         <v>11.976744186046375</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
@@ -2638,11 +2639,11 @@
         <v>20</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>C24/D24</f>
         <v>0.71666666666666856</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2653,12 +2654,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2692,7 +2693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2702,7 +2703,7 @@
       </c>
       <c r="R36" s="4"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -2728,10 +2729,10 @@
         <v>870.25</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2740,12 +2741,12 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>1045.4166666666667</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>35</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>870.25</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>175.16666666666674</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>30</v>
       </c>
@@ -2832,7 +2833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>31</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>32</v>
       </c>
@@ -2850,7 +2851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>33</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>34</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -2885,10 +2886,10 @@
         <v>1064.8333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>44</v>
       </c>
@@ -2896,10 +2897,10 @@
         <v>872.5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>45</v>
       </c>
@@ -2907,10 +2908,10 @@
         <v>1045.4166666666667</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>35</v>
       </c>
@@ -2918,10 +2919,10 @@
         <v>870.25</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>36</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>17.166666666666515</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>35</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>870.25</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -2956,15 +2957,15 @@
         <v>210.75</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -2973,73 +2974,73 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B107">
-        <f t="shared" ref="B107:B117" si="1">SUM(C4:E4)</f>
+        <f t="shared" ref="B107:B117" si="0">SUM(C4:E4)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>40</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>874.33333333333337</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>44</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>872.5</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>43</v>
       </c>
@@ -3073,7 +3074,7 @@
         <v>1.8333333333333712</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>46</v>
       </c>
